--- a/shiny-app/data/aldermen.xlsx
+++ b/shiny-app/data/aldermen.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\snh4pal_aldermen_contact\shiny-app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11DA10B1-11C0-47B6-A396-5588F13B38A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A641C0CC-A7C6-4B93-8C00-4DE0DB458CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2595" yWindow="495" windowWidth="23655" windowHeight="14640" xr2:uid="{C259BD3B-8339-4B6E-9D85-547C0C90F1A9}"/>
+    <workbookView xWindow="2595" yWindow="495" windowWidth="23655" windowHeight="14640" activeTab="1" xr2:uid="{C259BD3B-8339-4B6E-9D85-547C0C90F1A9}"/>
   </bookViews>
   <sheets>
     <sheet name="officials" sheetId="1" r:id="rId1"/>
+    <sheet name="messages" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="305">
   <si>
     <t>phone</t>
   </si>
@@ -921,6 +922,37 @@
   </si>
   <si>
     <t>Senator Shaheen</t>
+  </si>
+  <si>
+    <t>I am writing to you today… PLACEHOLDER Nashua MESSAGE</t>
+  </si>
+  <si>
+    <t>I am writing to you today… PLACEHOLDER Concord MESSAGE</t>
+  </si>
+  <si>
+    <t>I am writing to you today… PLACEHOLDER Dover MESSAGE</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>Manchester Subject</t>
+  </si>
+  <si>
+    <t>Dover Subject</t>
+  </si>
+  <si>
+    <t>Nashua Subject</t>
+  </si>
+  <si>
+    <t>Concord Subject</t>
+  </si>
+  <si>
+    <t>I am writing to you today…
+ PLACEHOLDER Manchester MESSAGE</t>
   </si>
 </sst>
 </file>
@@ -968,12 +1000,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1308,11 +1339,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{323D73A9-4607-4B2B-968A-B4183713861C}">
-  <dimension ref="A1:K69"/>
+  <dimension ref="A1:J69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2:D69"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1325,7 +1356,7 @@
     <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -1357,7 +1388,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1379,7 +1410,7 @@
       <c r="G2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="2">
         <v>6036246500</v>
       </c>
       <c r="I2" t="s">
@@ -1389,7 +1420,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1411,7 +1442,7 @@
       <c r="G3" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <v>6036742400</v>
       </c>
       <c r="I3" t="s">
@@ -1420,9 +1451,8 @@
       <c r="J3" t="s">
         <v>210</v>
       </c>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1444,7 +1474,7 @@
       <c r="G4" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>6034939052</v>
       </c>
       <c r="I4" t="s">
@@ -1453,9 +1483,8 @@
       <c r="J4" t="s">
         <v>211</v>
       </c>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1477,7 +1506,7 @@
       <c r="G5" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <v>6036681037</v>
       </c>
       <c r="I5" t="s">
@@ -1486,9 +1515,8 @@
       <c r="J5" t="s">
         <v>218</v>
       </c>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1510,7 +1538,7 @@
       <c r="G6" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <v>2152878022</v>
       </c>
       <c r="I6" t="s">
@@ -1519,9 +1547,8 @@
       <c r="J6" t="s">
         <v>219</v>
       </c>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>234</v>
       </c>
@@ -1543,7 +1570,7 @@
       <c r="G7" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="2">
         <v>6036246943</v>
       </c>
       <c r="I7" t="s">
@@ -1552,9 +1579,8 @@
       <c r="J7" t="s">
         <v>220</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1576,7 +1602,7 @@
       <c r="G8" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <v>9782388824</v>
       </c>
       <c r="I8" t="s">
@@ -1585,9 +1611,8 @@
       <c r="J8" t="s">
         <v>213</v>
       </c>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1609,7 +1634,7 @@
       <c r="G9" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="2">
         <v>6038209064</v>
       </c>
       <c r="I9" t="s">
@@ -1618,9 +1643,8 @@
       <c r="J9" t="s">
         <v>215</v>
       </c>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1642,7 +1666,7 @@
       <c r="G10" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="2">
         <v>6033918038</v>
       </c>
       <c r="I10" t="s">
@@ -1651,9 +1675,8 @@
       <c r="J10" t="s">
         <v>212</v>
       </c>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1675,7 +1698,7 @@
       <c r="G11" t="s">
         <v>42</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="2">
         <v>6037140283</v>
       </c>
       <c r="I11" t="s">
@@ -1684,9 +1707,8 @@
       <c r="J11" t="s">
         <v>214</v>
       </c>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1708,7 +1730,7 @@
       <c r="G12" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="2">
         <v>6036277189</v>
       </c>
       <c r="I12" t="s">
@@ -1717,9 +1739,8 @@
       <c r="J12" t="s">
         <v>221</v>
       </c>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1741,7 +1762,7 @@
       <c r="G13" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="2">
         <v>6033846293</v>
       </c>
       <c r="I13" t="s">
@@ -1750,9 +1771,8 @@
       <c r="J13" t="s">
         <v>222</v>
       </c>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1774,7 +1794,7 @@
       <c r="G14" t="s">
         <v>45</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="2">
         <v>6033840009</v>
       </c>
       <c r="I14" t="s">
@@ -1783,9 +1803,8 @@
       <c r="J14" t="s">
         <v>223</v>
       </c>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1807,7 +1826,7 @@
       <c r="G15" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="2">
         <v>6036689814</v>
       </c>
       <c r="I15" t="s">
@@ -1817,7 +1836,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -1839,7 +1858,7 @@
       <c r="G16" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="2">
         <v>6036227575</v>
       </c>
       <c r="I16" t="s">
@@ -1871,7 +1890,7 @@
       <c r="G17" t="s">
         <v>90</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="2">
         <v>6033960204</v>
       </c>
       <c r="I17" t="s">
@@ -1900,7 +1919,7 @@
       <c r="G18" t="s">
         <v>90</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="2">
         <v>6035343750</v>
       </c>
       <c r="I18" t="s">
@@ -1929,7 +1948,7 @@
       <c r="G19" t="s">
         <v>90</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="2">
         <v>6035342119</v>
       </c>
       <c r="I19" t="s">
@@ -1958,7 +1977,7 @@
       <c r="G20" t="s">
         <v>90</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="2">
         <v>6034032958</v>
       </c>
       <c r="I20" t="s">
@@ -1987,7 +2006,7 @@
       <c r="G21" t="s">
         <v>91</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="2">
         <v>6037244288</v>
       </c>
       <c r="I21" t="s">
@@ -2016,7 +2035,7 @@
       <c r="G22" t="s">
         <v>92</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="2">
         <v>6035506574</v>
       </c>
       <c r="I22" t="s">
@@ -2045,7 +2064,7 @@
       <c r="G23" t="s">
         <v>93</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="2">
         <v>6039690132</v>
       </c>
       <c r="I23" t="s">
@@ -2074,7 +2093,7 @@
       <c r="G24" t="s">
         <v>94</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="2">
         <v>6035343623</v>
       </c>
       <c r="I24" t="s">
@@ -2103,7 +2122,7 @@
       <c r="G25" t="s">
         <v>95</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="2">
         <v>6035343750</v>
       </c>
       <c r="I25" t="s">
@@ -2132,7 +2151,7 @@
       <c r="G26" t="s">
         <v>96</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="2">
         <v>6035205450</v>
       </c>
       <c r="I26" t="s">
@@ -2161,7 +2180,7 @@
       <c r="G27" t="s">
         <v>133</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="2">
         <v>6035893260</v>
       </c>
       <c r="I27" t="s">
@@ -2190,7 +2209,7 @@
       <c r="G28" t="s">
         <v>124</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="2">
         <v>6038091786</v>
       </c>
       <c r="I28" t="s">
@@ -2219,7 +2238,7 @@
       <c r="G29" t="s">
         <v>125</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="2">
         <v>6035983528</v>
       </c>
       <c r="I29" t="s">
@@ -2248,7 +2267,7 @@
       <c r="G30" t="s">
         <v>126</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30" s="2">
         <v>6039660979</v>
       </c>
       <c r="I30" t="s">
@@ -2277,7 +2296,7 @@
       <c r="G31" t="s">
         <v>127</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" s="2">
         <v>6035893030</v>
       </c>
       <c r="I31" t="s">
@@ -2306,7 +2325,7 @@
       <c r="G32" t="s">
         <v>128</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="2">
         <v>6038833459</v>
       </c>
       <c r="I32" t="s">
@@ -2335,7 +2354,7 @@
       <c r="G33" t="s">
         <v>129</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="2">
         <v>6035650594</v>
       </c>
       <c r="I33" t="s">
@@ -2364,7 +2383,7 @@
       <c r="G34" t="s">
         <v>130</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H34" s="2">
         <v>6033478971</v>
       </c>
       <c r="I34" t="s">
@@ -2393,7 +2412,7 @@
       <c r="G35" t="s">
         <v>131</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35" s="2">
         <v>6033058046</v>
       </c>
       <c r="I35" t="s">
@@ -2422,7 +2441,7 @@
       <c r="G36" t="s">
         <v>132</v>
       </c>
-      <c r="H36" s="3">
+      <c r="H36" s="2">
         <v>6033657785</v>
       </c>
       <c r="I36" t="s">
@@ -2451,7 +2470,7 @@
       <c r="G37" t="s">
         <v>133</v>
       </c>
-      <c r="H37" s="3">
+      <c r="H37" s="2">
         <v>6033059969</v>
       </c>
       <c r="I37" t="s">
@@ -2480,7 +2499,7 @@
       <c r="G38" t="s">
         <v>133</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H38" s="2">
         <v>6035893030</v>
       </c>
       <c r="I38" t="s">
@@ -2509,7 +2528,7 @@
       <c r="G39" t="s">
         <v>133</v>
       </c>
-      <c r="H39" s="3">
+      <c r="H39" s="2">
         <v>9784830182</v>
       </c>
       <c r="I39" t="s">
@@ -2538,7 +2557,7 @@
       <c r="G40" t="s">
         <v>133</v>
       </c>
-      <c r="H40" s="3">
+      <c r="H40" s="2">
         <v>6038888051</v>
       </c>
       <c r="I40" t="s">
@@ -2567,7 +2586,7 @@
       <c r="G41" t="s">
         <v>133</v>
       </c>
-      <c r="H41" s="3">
+      <c r="H41" s="2">
         <v>6038091786</v>
       </c>
       <c r="I41" t="s">
@@ -2596,7 +2615,7 @@
       <c r="G42" t="s">
         <v>133</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H42" s="2">
         <v>6038094203</v>
       </c>
       <c r="I42" t="s">
@@ -2625,7 +2644,7 @@
       <c r="G43" t="s">
         <v>171</v>
       </c>
-      <c r="H43" s="3">
+      <c r="H43" s="2">
         <v>6032280097</v>
       </c>
       <c r="I43" t="s">
@@ -2654,7 +2673,7 @@
       <c r="G44" t="s">
         <v>172</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H44" s="2">
         <v>6037539609</v>
       </c>
       <c r="I44" t="s">
@@ -2683,7 +2702,7 @@
       <c r="G45" t="s">
         <v>173</v>
       </c>
-      <c r="H45" s="3">
+      <c r="H45" s="2">
         <v>6035339278</v>
       </c>
       <c r="I45" t="s">
@@ -2712,7 +2731,7 @@
       <c r="G46" t="s">
         <v>174</v>
       </c>
-      <c r="H46" s="3">
+      <c r="H46" s="2">
         <v>6032288395</v>
       </c>
       <c r="I46" t="s">
@@ -2741,7 +2760,7 @@
       <c r="G47" t="s">
         <v>175</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="2">
         <v>6035455578</v>
       </c>
       <c r="I47" t="s">
@@ -2770,7 +2789,7 @@
       <c r="G48" t="s">
         <v>176</v>
       </c>
-      <c r="H48" s="3">
+      <c r="H48" s="2">
         <v>6037171350</v>
       </c>
       <c r="I48" t="s">
@@ -2799,7 +2818,7 @@
       <c r="G49" t="s">
         <v>177</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H49" s="2">
         <v>6038482930</v>
       </c>
       <c r="I49" t="s">
@@ -2828,7 +2847,7 @@
       <c r="G50" t="s">
         <v>178</v>
       </c>
-      <c r="H50" s="3">
+      <c r="H50" s="2">
         <v>7818792089</v>
       </c>
       <c r="I50" t="s">
@@ -2857,7 +2876,7 @@
       <c r="G51" t="s">
         <v>179</v>
       </c>
-      <c r="H51" s="3">
+      <c r="H51" s="2">
         <v>6033666353</v>
       </c>
       <c r="I51" t="s">
@@ -2886,7 +2905,7 @@
       <c r="G52" t="s">
         <v>180</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H52" s="2">
         <v>6038567279</v>
       </c>
       <c r="I52" t="s">
@@ -2915,7 +2934,7 @@
       <c r="G53" t="s">
         <v>181</v>
       </c>
-      <c r="H53" s="3">
+      <c r="H53" s="2">
         <v>6032253256</v>
       </c>
       <c r="I53" t="s">
@@ -2944,7 +2963,7 @@
       <c r="G54" t="s">
         <v>171</v>
       </c>
-      <c r="H54" s="3">
+      <c r="H54" s="2">
         <v>6038563890</v>
       </c>
       <c r="I54" t="s">
@@ -2973,7 +2992,7 @@
       <c r="G55" t="s">
         <v>171</v>
       </c>
-      <c r="H55" s="3">
+      <c r="H55" s="2">
         <v>6035489377</v>
       </c>
       <c r="I55" t="s">
@@ -3002,7 +3021,7 @@
       <c r="G56" t="s">
         <v>171</v>
       </c>
-      <c r="H56" s="3">
+      <c r="H56" s="2">
         <v>6035687667</v>
       </c>
       <c r="I56" t="s">
@@ -3031,7 +3050,7 @@
       <c r="G57" t="s">
         <v>171</v>
       </c>
-      <c r="H57" s="3">
+      <c r="H57" s="2">
         <v>6034064953</v>
       </c>
       <c r="I57" t="s">
@@ -3060,7 +3079,7 @@
       <c r="G58" t="s">
         <v>18</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="2">
         <v>2022255456</v>
       </c>
       <c r="J58" t="s">
@@ -3089,7 +3108,7 @@
       <c r="G59" t="s">
         <v>90</v>
       </c>
-      <c r="H59" s="3">
+      <c r="H59" s="2">
         <v>2022255456</v>
       </c>
       <c r="J59" t="s">
@@ -3118,7 +3137,7 @@
       <c r="G60" t="s">
         <v>133</v>
       </c>
-      <c r="H60" s="4">
+      <c r="H60" s="2">
         <v>2022255206</v>
       </c>
       <c r="J60" t="s">
@@ -3147,7 +3166,7 @@
       <c r="G61" t="s">
         <v>171</v>
       </c>
-      <c r="H61" s="4">
+      <c r="H61" s="2">
         <v>2022255206</v>
       </c>
       <c r="J61" t="s">
@@ -3176,7 +3195,7 @@
       <c r="G62" t="s">
         <v>18</v>
       </c>
-      <c r="H62" s="3">
+      <c r="H62" s="2">
         <v>2022243324</v>
       </c>
       <c r="J62" t="s">
@@ -3205,7 +3224,7 @@
       <c r="G63" t="s">
         <v>90</v>
       </c>
-      <c r="H63" s="3">
+      <c r="H63" s="2">
         <v>2022243324</v>
       </c>
       <c r="J63" t="s">
@@ -3234,7 +3253,7 @@
       <c r="G64" t="s">
         <v>133</v>
       </c>
-      <c r="H64" s="3">
+      <c r="H64" s="2">
         <v>2022243324</v>
       </c>
       <c r="J64" t="s">
@@ -3263,7 +3282,7 @@
       <c r="G65" t="s">
         <v>171</v>
       </c>
-      <c r="H65" s="3">
+      <c r="H65" s="2">
         <v>2022243324</v>
       </c>
       <c r="J65" t="s">
@@ -3292,7 +3311,7 @@
       <c r="G66" t="s">
         <v>18</v>
       </c>
-      <c r="H66" s="3" t="s">
+      <c r="H66" s="2" t="s">
         <v>229</v>
       </c>
       <c r="J66" t="s">
@@ -3321,7 +3340,7 @@
       <c r="G67" t="s">
         <v>90</v>
       </c>
-      <c r="H67" s="3" t="s">
+      <c r="H67" s="2" t="s">
         <v>229</v>
       </c>
       <c r="J67" t="s">
@@ -3350,7 +3369,7 @@
       <c r="G68" t="s">
         <v>133</v>
       </c>
-      <c r="H68" s="3" t="s">
+      <c r="H68" s="2" t="s">
         <v>229</v>
       </c>
       <c r="J68" t="s">
@@ -3379,7 +3398,7 @@
       <c r="G69" t="s">
         <v>171</v>
       </c>
-      <c r="H69" s="3" t="s">
+      <c r="H69" s="2" t="s">
         <v>229</v>
       </c>
       <c r="J69" t="s">
@@ -3393,4 +3412,77 @@
     <ignoredError sqref="H66 H67:H69" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B287FA-4AF1-42D6-ABE7-1A70787984A0}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="17.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/shiny-app/data/aldermen.xlsx
+++ b/shiny-app/data/aldermen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\snh4pal_aldermen_contact\shiny-app\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastianrowan/Documents/GitHub/snh4pal_aldermen_contact/shiny-app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A641C0CC-A7C6-4B93-8C00-4DE0DB458CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC36B40-FCA4-6C40-9B45-398379FA8246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2595" yWindow="495" windowWidth="23655" windowHeight="14640" activeTab="1" xr2:uid="{C259BD3B-8339-4B6E-9D85-547C0C90F1A9}"/>
+    <workbookView xWindow="2600" yWindow="500" windowWidth="23660" windowHeight="14640" activeTab="1" xr2:uid="{C259BD3B-8339-4B6E-9D85-547C0C90F1A9}"/>
   </bookViews>
   <sheets>
     <sheet name="officials" sheetId="1" r:id="rId1"/>
@@ -930,9 +930,6 @@
     <t>I am writing to you today… PLACEHOLDER Concord MESSAGE</t>
   </si>
   <si>
-    <t>I am writing to you today… PLACEHOLDER Dover MESSAGE</t>
-  </si>
-  <si>
     <t>subject</t>
   </si>
   <si>
@@ -940,9 +937,6 @@
   </si>
   <si>
     <t>Manchester Subject</t>
-  </si>
-  <si>
-    <t>Dover Subject</t>
   </si>
   <si>
     <t>Nashua Subject</t>
@@ -953,13 +947,26 @@
   <si>
     <t>I am writing to you today…
  PLACEHOLDER Manchester MESSAGE</t>
+  </si>
+  <si>
+    <t>Support a Ceasefire Resolution in Dover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am writing to express my support for the Ceasefire Resolution and request that you vote for it at the next council meeting. I am deeply concerned about the ongoing violence in Israel and Palestine and it is my conviction that the United States has a critical role to play in promoting peace and justice in the region. 
+For the past 5 months, we have been calling and leaving messages to our state and federal representatives to push for a ceasefire, to no avail. We are asking you to pass this resolution, representing our voice, and join the movement of over 70 U.S cities and towns, including Durham and Lebanon in NH, in urging our government to not use our tax dollars to fund a genocide and instead call for a ceasefire. A resolution passed by a city carries more weight than individuals calling our representatives, and it builds on the values of human rights that we pride ourselves on as a community in Dover. Unlike other world conflicts including Ukraine, our federal government is funding the aggressor here using our federal taxes, supplying weapons, and providing diplomatic cover by vetoing ceasefire resolutions in the UN Security Council. As a city government, it is within your jurisdiction to represent our voice to our representatives in demanding a ceasefire. 
+I hereby request that you support the ceasefire resolution which will be up for a vote on March 27th, and that this resolution:
+• Acknowledges the disproportionate loss of lives in Gaza where over 31,000 Palestinians have been killed, over 70% being women and children, including 13,000 children.
+• Requests provision of humanitarian aid to Gaza.
+• Urges the release of all Palestinian and Israeli hostages.
+• Urges the United States to reassert its leadership role as a negotiator, addressing the root causes of violence, and ending Israel's occupation and apartheid policies.
+I sincerely appreciate your attention to these critical matters. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -978,6 +985,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1000,10 +1013,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1346,17 +1360,17 @@
       <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="22.42578125" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="22.5" customWidth="1"/>
+    <col min="6" max="6" width="17.5" customWidth="1"/>
+    <col min="7" max="7" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -1388,7 +1402,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1420,7 +1434,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1452,7 +1466,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1484,7 +1498,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1516,7 +1530,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1548,7 +1562,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>234</v>
       </c>
@@ -1580,7 +1594,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1612,7 +1626,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1644,7 +1658,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1676,7 +1690,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1708,7 +1722,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1740,7 +1754,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1772,7 +1786,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1804,7 +1818,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1836,7 +1850,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -1868,7 +1882,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -1897,7 +1911,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>64</v>
       </c>
@@ -1926,7 +1940,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -1955,7 +1969,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>67</v>
       </c>
@@ -1984,7 +1998,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>68</v>
       </c>
@@ -2013,7 +2027,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>70</v>
       </c>
@@ -2042,7 +2056,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>72</v>
       </c>
@@ -2071,7 +2085,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>74</v>
       </c>
@@ -2100,7 +2114,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>64</v>
       </c>
@@ -2129,7 +2143,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>76</v>
       </c>
@@ -2158,7 +2172,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>169</v>
       </c>
@@ -2187,7 +2201,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>97</v>
       </c>
@@ -2216,7 +2230,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>98</v>
       </c>
@@ -2245,7 +2259,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>99</v>
       </c>
@@ -2274,7 +2288,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>100</v>
       </c>
@@ -2303,7 +2317,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>101</v>
       </c>
@@ -2332,7 +2346,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>102</v>
       </c>
@@ -2361,7 +2375,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>103</v>
       </c>
@@ -2390,7 +2404,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>104</v>
       </c>
@@ -2419,7 +2433,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>105</v>
       </c>
@@ -2448,7 +2462,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>106</v>
       </c>
@@ -2477,7 +2491,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>107</v>
       </c>
@@ -2506,7 +2520,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>108</v>
       </c>
@@ -2535,7 +2549,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>109</v>
       </c>
@@ -2564,7 +2578,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>110</v>
       </c>
@@ -2593,7 +2607,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>111</v>
       </c>
@@ -2622,7 +2636,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>149</v>
       </c>
@@ -2651,7 +2665,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>150</v>
       </c>
@@ -2680,7 +2694,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>151</v>
       </c>
@@ -2709,7 +2723,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>152</v>
       </c>
@@ -2738,7 +2752,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>153</v>
       </c>
@@ -2767,7 +2781,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>154</v>
       </c>
@@ -2796,7 +2810,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>155</v>
       </c>
@@ -2825,7 +2839,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>156</v>
       </c>
@@ -2854,7 +2868,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>157</v>
       </c>
@@ -2883,7 +2897,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>158</v>
       </c>
@@ -2912,7 +2926,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>159</v>
       </c>
@@ -2941,7 +2955,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>160</v>
       </c>
@@ -2970,7 +2984,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>161</v>
       </c>
@@ -2999,7 +3013,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>162</v>
       </c>
@@ -3028,7 +3042,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>163</v>
       </c>
@@ -3057,7 +3071,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>200</v>
       </c>
@@ -3086,7 +3100,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>200</v>
       </c>
@@ -3115,7 +3129,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>203</v>
       </c>
@@ -3144,7 +3158,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>203</v>
       </c>
@@ -3173,7 +3187,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>225</v>
       </c>
@@ -3202,7 +3216,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>225</v>
       </c>
@@ -3231,7 +3245,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>225</v>
       </c>
@@ -3260,7 +3274,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>225</v>
       </c>
@@ -3289,7 +3303,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>228</v>
       </c>
@@ -3318,7 +3332,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>228</v>
       </c>
@@ -3347,7 +3361,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>228</v>
       </c>
@@ -3376,7 +3390,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>228</v>
       </c>
@@ -3419,64 +3433,64 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="17.5703125" customWidth="1"/>
+    <col min="1" max="2" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>48</v>
       </c>
       <c r="B1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C1" t="s">
         <v>298</v>
       </c>
-      <c r="C1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>300</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+      <c r="C2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>78</v>
       </c>
-      <c r="B3" t="s">
-        <v>301</v>
-      </c>
-      <c r="C3" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>123</v>
       </c>
       <c r="B4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C4" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>170</v>
       </c>
       <c r="B5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C5" t="s">
         <v>296</v>
